--- a/src/analysis_examples/circadb/results_jtk/cosinor_10472589_phospho2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10472589_phospho2_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23160464831603678, 0.36279027598511404]</t>
+          <t>[0.23281854662831664, 0.3615763776728342]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.432110539160817e-09</v>
+        <v>3.938503523315262e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>5.432110539160817e-09</v>
+        <v>3.938503523315262e-09</v>
       </c>
       <c r="O2" t="n">
         <v>0.2956053147521924</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.044026323473730145, 0.5471843060306547]</t>
+          <t>[0.06918422260157708, 0.5220264069028078]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.02346186417344454</v>
+        <v>0.01296938068100628</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02346186417344454</v>
+        <v>0.01296938068100628</v>
       </c>
       <c r="S2" t="n">
         <v>0.5365998978726872</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4982349530911918, 0.5749648426541827]</t>
+          <t>[0.4982360947404376, 0.5749637010049369]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>25.92984984985092</v>
       </c>
       <c r="X2" t="n">
-        <v>24.84036036036139</v>
+        <v>24.94930930931034</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.01933933934046</v>
+        <v>26.91039039039151</v>
       </c>
     </row>
   </sheetData>
